--- a/Time-Altitude Data (from OpenRocket).xlsx
+++ b/Time-Altitude Data (from OpenRocket).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\ENAE100-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34E037F4-07B6-43DB-A222-B135E9D3C2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6B44D1-A35A-4FB4-BA38-D61AAED740F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="9825" windowWidth="20730" windowHeight="11760" xr2:uid="{6C7023C4-F21D-46B1-9DF5-F72B2BE1BC77}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{6C7023C4-F21D-46B1-9DF5-F72B2BE1BC77}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation Data" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -101,8 +101,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,13 +110,13 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.000"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -134,6 +134,5343 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Simulation Data'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Altitude (m)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Simulation Data'!$A$2:$A$741</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="740"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9842E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10824</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11569</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12246</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.12870999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.13453999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14002999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14826</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.16061</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17913999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.19453000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.20679</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21812000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.22872000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24839</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26678000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.27572999999999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28460999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29350999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30252000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.31181999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32174000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33265</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.34532000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36174000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.38638</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.42332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.43229000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.43969000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.44622000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.45215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.45768999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.46296999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.46805000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.47295999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47772999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48238999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.48697000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.49147999999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.49593999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.50038000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.50480000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.50919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.51361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.51802999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.52249999999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.52703999999999995</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.53168000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.53647</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.54144000000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.54668000000000005</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.55227000000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.55828999999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.56483000000000005</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.57216</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.58081000000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.59223000000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.60936000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.63505</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.64149999999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.65195000000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.65654000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.66085000000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.66496999999999995</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.66893999999999998</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.67281000000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.67661000000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.68035999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.68408999999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.68781000000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.69155999999999995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.69537000000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.69925000000000004</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.70326</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.70748</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.71201999999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.71701000000000004</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.72269000000000005</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.72957000000000005</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.73912999999999995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.75346999999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.77437999999999996</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.78086</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.78639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.79144000000000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.79615999999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.80067999999999995</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.80508000000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.80940000000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.81371000000000004</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.81806999999999996</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.82250999999999996</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.82711999999999997</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.83199000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.83726</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.84316000000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.85018000000000005</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.85953999999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.87358999999999998</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.89466999999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.90236000000000005</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.90866000000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.91432000000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.91966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.92484999999999995</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.93001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.93525999999999998</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.94072</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.9466</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.95318999999999998</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.96099000000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.97123000000000004</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.98658999999999997</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.0096000000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.0194000000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.0278</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.0358000000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.0439000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.0525</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.0623</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.0743</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.0923</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.1193</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.1369</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.1508</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.1647000000000001</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.1816</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.2071000000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.2452000000000001</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.2789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.3130999999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.3631</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.3855999999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.4194</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.4585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.4756</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.4965999999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.5283</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.5757000000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.6256999999999999</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.6531</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.6780999999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.7155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1.7655000000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1.8089</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.8589</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1.9089</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1.9412</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.9883999999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2.0384000000000002</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2.0884</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2.1383999999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2.1884000000000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2.2383999999999999</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2.2884000000000002</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2.3384</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2.3883999999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2.4384000000000001</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2.4883999999999999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.5384000000000002</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2.5884</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2.6293000000000002</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2.6686999999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2.7187000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2.7686999999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.7942999999999998</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2.8193999999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.8433999999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2.8694000000000002</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2.9083999999999999</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2.9584000000000001</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.9780000000000002</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.9956</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>3.0131000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.0329000000000002</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>3.0594999999999999</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.0994999999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3.1495000000000002</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>3.1869000000000001</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>3.2174999999999998</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>3.2444999999999999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>3.2698999999999998</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>3.3056000000000001</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3.3555999999999999</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3.4056000000000002</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>3.4365000000000001</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>3.4596</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>3.4834999999999998</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>3.5163000000000002</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>3.5653000000000001</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>3.6153</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>3.6377999999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>3.6564000000000001</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>3.6747999999999998</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>3.6958000000000002</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>3.7233000000000001</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>3.7519</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>3.7845</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>3.8332999999999999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>3.8633000000000002</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>3.8826000000000001</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>3.8997999999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>3.9163000000000001</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>3.9331999999999998</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>3.9514999999999998</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>3.9723999999999999</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>3.9971999999999999</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4.032</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4.0819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>4.1029</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>4.1172000000000004</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>4.1307</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>4.1440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>4.1574999999999998</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>4.1715999999999998</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>4.1868999999999996</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>4.2043999999999997</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>4.2266000000000004</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>4.2596999999999996</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>4.3094999999999999</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>4.3368000000000002</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>4.3571</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>4.3745000000000003</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>4.3898999999999999</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>4.4043999999999999</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>4.4188999999999998</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>4.4349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4.4539</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>4.4790999999999999</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>4.5167999999999999</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>4.5667999999999997</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>4.5903</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>4.6113999999999997</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>4.6323999999999996</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>4.6547000000000001</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4.6787999999999998</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>4.7022000000000004</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>4.7268999999999997</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>4.7614999999999998</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>4.8114999999999997</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>4.8615000000000004</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>4.8918999999999997</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>4.9183000000000003</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>4.9420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>4.9644000000000004</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>4.9882</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>5.0163000000000002</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>5.0583999999999998</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>5.1083999999999996</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>5.1527000000000003</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>5.1832000000000003</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>5.2084000000000001</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>5.2325999999999997</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>5.2591000000000001</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>5.2904999999999998</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>5.3353999999999999</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>5.3853999999999997</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>5.4353999999999996</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>5.4787999999999997</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>5.5164</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>5.5537999999999998</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5.5971000000000002</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>5.6471</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>5.6970999999999998</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>5.7470999999999997</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5.7971000000000004</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>5.8449</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>5.8948999999999998</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>5.9448999999999996</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>5.9949000000000003</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>6.0449000000000002</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>6.0872000000000002</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>6.1372</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>6.1871999999999998</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>6.2371999999999996</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>6.2872000000000003</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>6.3372000000000002</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>6.3872</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>6.4371999999999998</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>6.4871999999999996</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>6.5372000000000003</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>6.5872000000000002</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>6.6372</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>6.6871999999999998</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>6.7371999999999996</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>6.7872000000000003</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>6.8372000000000002</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>6.8872</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>6.9371999999999998</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>6.9871999999999996</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>7.0372000000000003</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>7.0872000000000002</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>7.1372</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>7.1871999999999998</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>7.2371999999999996</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>7.2872000000000003</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>7.3372000000000002</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>7.3872</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>7.4371999999999998</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>7.4871999999999996</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>7.5372000000000003</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>7.5872000000000002</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>7.6372</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>7.6871999999999998</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>7.7371999999999996</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>7.7872000000000003</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>7.8372000000000002</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>7.8872</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>7.9371999999999998</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>7.9871999999999996</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>8.0372000000000003</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>8.0871999999999993</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>8.1372</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>8.1872000000000007</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>8.2371999999999996</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>8.2872000000000003</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>8.3371999999999993</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>8.3872</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>8.4372000000000007</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>8.4871999999999996</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>8.5372000000000003</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>8.5871999999999993</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>8.6372</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>8.6872000000000007</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>8.7371999999999996</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>8.7872000000000003</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>8.8371999999999993</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>8.8872</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>8.9372000000000007</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>8.9871999999999996</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>9.0372000000000003</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>9.0871999999999993</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>9.1372</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>9.1872000000000007</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>9.2371999999999996</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>9.2872000000000003</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>9.3371999999999993</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>9.3872</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>9.4372000000000007</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>9.4871999999999996</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>9.5372000000000003</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>9.5871999999999993</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>9.6372</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>9.6872000000000007</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>9.7371999999999996</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>9.7872000000000003</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>9.8371999999999993</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>9.8872</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>9.9372000000000007</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>9.9871999999999996</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>10.037000000000001</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>10.087</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>10.137</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>10.186999999999999</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>10.237</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>10.287000000000001</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>10.337</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>10.387</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>10.436999999999999</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>10.487</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>10.537000000000001</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>10.587</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>10.637</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>10.686999999999999</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>10.737</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>10.787000000000001</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>10.837</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>10.887</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>10.936999999999999</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>10.987</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>11.037000000000001</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>11.087</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>11.092000000000001</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>11.105</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>11.111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>11.118</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>11.124000000000001</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>11.132</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>11.14</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>11.148</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>11.157</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>11.167999999999999</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>11.179</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>11.192</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>11.207000000000001</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>11.223000000000001</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>11.242000000000001</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>11.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>11.29</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>11.318</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>11.351000000000001</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>11.39</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>11.435</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>11.496</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>11.577999999999999</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>11.691000000000001</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>11.805999999999999</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>11.930999999999999</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>12.068</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>12.382999999999999</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>12.882999999999999</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>13.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>13.442</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>13.942</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>14.023</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>14.114000000000001</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>14.252000000000001</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>14.648</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>15.148</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>15.619</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>15.769</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>16.268999999999998</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>16.768999999999998</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>17.059000000000001</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>17.559000000000001</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>18.059000000000001</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>18.559000000000001</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>19.059000000000001</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>19.321999999999999</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>19.509</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>20.009</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>20.509</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>20.824999999999999</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>20.943999999999999</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>21.164999999999999</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>21.664999999999999</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>21.797000000000001</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>22.12</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>22.62</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>23.12</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>23.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>23.861999999999998</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>24.361999999999998</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>24.861999999999998</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>25.3</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>25.8</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>26.045000000000002</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>26.545000000000002</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>27.045000000000002</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>27.474</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>27.974</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>28.065999999999999</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>28.361000000000001</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>28.861000000000001</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>29.038</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>29.538</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>29.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>30.2</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>30.414000000000001</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>30.914000000000001</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>31.05</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>31.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>31.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>32.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>32.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>33.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>33.668999999999997</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>34.073999999999998</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>34.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>34.923999999999999</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>35.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>35.923999999999999</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>36.423999999999999</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>36.875</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>37.252000000000002</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>37.658999999999999</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>38.158999999999999</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>38.58</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>39.08</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>39.58</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>39.924999999999997</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>40.424999999999997</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>40.716999999999999</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>41.152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>41.427999999999997</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>41.694000000000003</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>41.988</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>42.488</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>42.762</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>43.262</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>43.738999999999997</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>44.238999999999997</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>44.738999999999997</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>45.238999999999997</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>45.496000000000002</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>45.996000000000002</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>46.496000000000002</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>46.887999999999998</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>47.149000000000001</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>47.649000000000001</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>47.789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>47.898000000000003</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>48.122999999999998</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>48.622999999999998</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>49.122999999999998</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>49.622999999999998</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>49.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>50.466999999999999</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>50.747999999999998</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>51.247999999999998</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>51.747999999999998</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>52.209000000000003</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>52.709000000000003</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>53.209000000000003</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>53.427999999999997</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>53.662999999999997</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>54.162999999999997</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>54.499000000000002</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>54.954999999999998</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>55.301000000000002</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>55.405999999999999</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>55.658999999999999</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>56.061</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>56.207000000000001</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>56.350999999999999</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>56.555</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>56.969000000000001</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>57.283999999999999</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>57.716999999999999</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>57.911000000000001</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>58.411000000000001</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>58.552999999999997</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>58.847000000000001</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>59.347000000000001</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>59.847000000000001</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>60.085999999999999</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>60.585999999999999</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>60.784999999999997</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>61.284999999999997</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>61.697000000000003</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>62.128</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>62.545000000000002</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>62.747999999999998</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>63.247999999999998</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>63.622</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>64.122</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>64.448999999999998</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>64.739000000000004</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>64.942999999999998</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>65.11</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>65.314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>65.814999999999998</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>66.314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>66.498000000000005</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>66.680999999999997</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>66.929000000000002</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>67.100999999999999</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>67.295000000000002</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>67.498999999999995</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>67.986999999999995</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>68.486999999999995</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>68.58</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>68.733000000000004</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>68.981999999999999</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>69.17</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>69.67</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>70.17</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>70.444000000000003</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>70.944000000000003</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>71.444000000000003</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>71.596999999999994</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>71.808999999999997</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>72.245000000000005</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>72.745000000000005</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>73.245000000000005</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>73.590999999999994</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>73.948999999999998</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>74.448999999999998</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>74.67</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>74.927999999999997</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>75.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>75.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>76.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>76.414000000000001</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>76.712999999999994</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>76.991</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>77.491</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>77.991</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>78.241</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>78.741</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>79.241</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>79.501000000000005</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>79.685000000000002</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>79.87</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>80.305999999999997</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>80.48</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>80.844999999999999</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>81.052000000000007</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>81.552000000000007</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>81.8</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>82.081000000000003</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>82.581000000000003</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>82.679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>82.837000000000003</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>83.272999999999996</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>83.772999999999996</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>84.012</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>84.512</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>85.012</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>85.512</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>85.688999999999993</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>86.188999999999993</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>86.688999999999993</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>87.188999999999993</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>87.688999999999993</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>87.91</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>88.41</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>88.713999999999999</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>89.213999999999999</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>89.713999999999999</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>89.957999999999998</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>90.16</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>90.66</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>91.16</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>91.369</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>91.757000000000005</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>91.968000000000004</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>92.183000000000007</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>92.677000000000007</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>93.177000000000007</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>93.677000000000007</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>93.869</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>94.369</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>94.869</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>95.369</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>95.869</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>96.164000000000001</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>96.664000000000001</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>97.164000000000001</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>97.463999999999999</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>97.753</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>98.234999999999999</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>98.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>98.917000000000002</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>99.114000000000004</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>99.614000000000004</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>99.784000000000006</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>100.28</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>100.62</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>101.12</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>101.33</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>101.55</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>102.2</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>102.38</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>102.88</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>103.38</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>103.88</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>104.38</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>104.66</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>105.16</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>105.66</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>106.5</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>106.88</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>107.11</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>107.61</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>107.92</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>108.42</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>108.62</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>108.82</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>109.32</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>109.42</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>109.59</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>109.79</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>110.29</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>110.49</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>110.73</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>111.23</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>111.41</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>111.77</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>112.27</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>112.77</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>113.27</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>113.77</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>114.27</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>114.4</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>114.58</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>115.14</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>115.44</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>115.75</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>116.23</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>116.4</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>116.69</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>117.19</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>117.43</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>117.93</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>118.08</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>118.32</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>118.56</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>119.06</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>119.56</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>119.7</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>119.85</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>120.35</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>120.7</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>121.5</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>122.28</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>122.78</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>123.28</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>123.37</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>123.48</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>123.68</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>123.86</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>124.04</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>124.35</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>124.85</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>125.01</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>125.33</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>125.82</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>126.32</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>126.62</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>127.12</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>127.52</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>127.7</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>128.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>128.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>129.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>129.37</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>129.87</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>130.15</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>130.34</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>130.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Simulation Data'!$B$2:$B$741</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="740"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6503000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1635000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1594999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8554E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6836999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.9238000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15781000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23338</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32625999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43486000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54120999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.64624000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.75041000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.85397999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.95709999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0599000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2244999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4951000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9549000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3866999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7635999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.1377000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5104000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.8843000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.2614000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.6436999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.0336999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.4339000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.8472999999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.2775999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.7298</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.2135999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.7488000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.3612000000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.1016999999999992</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.726000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.378</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.061</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.638</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.155000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16.632999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.084</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.521000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>17.943999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.359000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.766999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19.169</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>19.568000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.966000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.361999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>20.760999999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21.161000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>21.562999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>21.969000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>22.381</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23.23</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>23.673999999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24.135000000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25.134</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>25.689</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>26.294</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>26.957999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27.710999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>28.614000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>29.826000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>31.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34.587000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35.332999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>35.975999999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>36.558999999999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37.101999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>37.616999999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38.112000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>38.591999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39.063000000000002</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39.527000000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>39.988</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40.448</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40.911000000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41.378999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41.856999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42.347000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42.854999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43.393999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43.975000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44.62</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45.357999999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46.258000000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>47.524000000000001</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>49.448999999999998</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>52.314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>53.216000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>53.991</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>54.7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>55.368000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>56.01</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>56.637</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>57.258000000000003</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>57.878</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>58.506999999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>59.152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>59.823999999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>60.537999999999997</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>61.314</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>62.186</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>63.23</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>64.635000000000005</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>66.763999999999996</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>70.007000000000005</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>71.204999999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>72.19</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>73.08</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>73.923000000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>74.744</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>75.561000000000007</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>76.396000000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>77.266999999999996</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>78.206000000000003</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>79.260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>80.509</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>82.150999999999996</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>84.614000000000004</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>88.298000000000002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>89.858000000000004</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>91.192999999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>92.462000000000003</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>93.736999999999995</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>95.097999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>96.635999999999996</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>98.52</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>101.33</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>105.52</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>108.23</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>110.34</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>112.47</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>115.04</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>118.87</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>124.55</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>129.54</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>134.51</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>141.71</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>144.93</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>149.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>155.19</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>157.53</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>160.44</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>164.76</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>171.17</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>177.83</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>181.44</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>184.71</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>189.56</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>195.96</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>201.45</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>207.68</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>213.83</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>217.75</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>223.43</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>229.37</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>235.22</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>246.69</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>252.32</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>257.87</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>263.33999999999997</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>268.75</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>274.08</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>279.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>284.55</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>289.68</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>293.83</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>297.77999999999997</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>302.75</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>307.64999999999998</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>310.13</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>312.55</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>314.86</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>317.33</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>321.02</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>325.69</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>327.51</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>329.13</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>330.74</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>332.54</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>334.96</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>338.56</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>343.01</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>346.31</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>348.99</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>351.32</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>353.51</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>356.57</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>360.8</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>364.98</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>367.54</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>369.44</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>371.4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>374.05</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>377.99</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>381.96</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>383.73</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>385.19</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>386.61</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>388.24</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>390.37</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>392.56</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>395.03</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>398.71</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>400.95</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>402.38</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>403.64</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>404.86</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>406.09</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>407.42</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>408.93</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>410.72</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>413.21</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>416.74</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>418.21</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>419.2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>420.14</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>421.07</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>422.97</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>424.02</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>425.22</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>426.72</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>428.97</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>432.3</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>434.11</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>435.44</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>436.58</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>437.59</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>438.53</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>439.47</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>440.5</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>441.72</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>443.32</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>445.71</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>448.84</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>450.3</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>451.6</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>452.89</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>454.25</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>455.71</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>457.12</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>458.61</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>460.67</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>463.61</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>466.52</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>468.27</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>469.78</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>471.12</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>472.38</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>473.72</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>475.28</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>477.6</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>480.32</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>482.7</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>484.32</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>485.66</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>486.93</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>488.31</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>489.94</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>492.24</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>494.77</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>497.27</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>499.41</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>501.24</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>503.04</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>505.11</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>507.46</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>509.78</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>512.05999999999995</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>514.30999999999995</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>516.44000000000005</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>518.63</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>520.79</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>522.91999999999996</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>525.01</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>526.76</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>528.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>530.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>532.78</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>534.72</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>536.64</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>538.52</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>540.38</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>542.21</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>545.77</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>547.51</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>549.22</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>550.9</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>552.55999999999995</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>554.17999999999995</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>555.78</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>557.34</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>558.88</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>560.4</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>561.88</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>563.33000000000004</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>564.76</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>566.16</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>567.53</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>568.87</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>570.17999999999995</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>571.47</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>572.73</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>573.96</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>575.16999999999996</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>576.34</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>577.5</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>578.62</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>579.72</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>580.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>581.85</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>582.87</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>583.87</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>584.84</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>585.78</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>586.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>587.6</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>588.47</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>589.30999999999995</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>590.13</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>590.91999999999996</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>591.69000000000005</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>592.42999999999995</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>593.14</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>593.83000000000004</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>594.5</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>595.14</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>595.75</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>596.34</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>596.9</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>597.44000000000005</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>597.96</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>598.44000000000005</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>598.91</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>599.35</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>599.76</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>600.15</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>600.52</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>600.86</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>601.17999999999995</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>601.47</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>601.74</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>601.99</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>602.22</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>602.41999999999996</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>602.6</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>602.75</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>602.89</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>603.08000000000004</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>603.15</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>603.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>603.22</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>603.22</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>603.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>603.16</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>603.09</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>603.01</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>602.9</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>602.77</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>602.62</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>602.45000000000005</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>602.25</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>602.03</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>601.79</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>601.52</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>601.23</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>600.91999999999996</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>600.58000000000004</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>600.22</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>599.84</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>599.42999999999995</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>598.54</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>598.05999999999995</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>598.01</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>597.92999999999995</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>597.88</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>597.83000000000004</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>597.77</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>597.71</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>597.65</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>597.58000000000004</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>597.51</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>597.44000000000005</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>597.36</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>597.28</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>597.19000000000005</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>597.09</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>596.99</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>596.87</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>596.73</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>596.59</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>596.42999999999995</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>596.25</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>596.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>595.82000000000005</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>595.52</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>595.12</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>594.57000000000005</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>594.01</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>593.41</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>592.74</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>591.16</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>588.62</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>587.5</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>585.79</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>583.25</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>582.84</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>582.39</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>581.71</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>579.72</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>577.16999999999996</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>574.79</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>574.03</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>571.49</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>568.94000000000005</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>567.48</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>564.94000000000005</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>562.4</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>559.86</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>557.32000000000005</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>555.05999999999995</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>552.52</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>549.98</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>548.39</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>547.79</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>546.69000000000005</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>544.15</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>543.48</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>541.85</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>539.30999999999995</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>536.78</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>534.9</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>533.03</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>530.49</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>527.96</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>525.74</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>523.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>521.96</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>519.42999999999995</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>516.9</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>514.73</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>512.19000000000005</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>511.73</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>510.26</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>507.72</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>506.82</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>504.29</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>503.04</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>500.94</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>499.86</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>497.33</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>496.64</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>495.57</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>493.03</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>490.5</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>487.97</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>485.44</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>483.4</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>481.36</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>479.6</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>477.07</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>474.54</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>472.01</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>469.48</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>467.2</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>465.3</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>463.24</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>460.72</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>458.6</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>456.07</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>453.55</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>451.81</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>449.28</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>447.81</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>445.62</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>444.23</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>442.9</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>441.42</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>438.9</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>437.52</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>432.59</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>430.07</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>427.54</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>425.02</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>423.73</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>421.21</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>418.68</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>416.71</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>415.4</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>412.88</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>412.18</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>411.64</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>410.52</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>408.01</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>405.48</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>402.96</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>401.23</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>398.71</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>397.29</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>394.77</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>392.25</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>389.93</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>387.41</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>384.89</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>383.8</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>382.62</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>380.11</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>378.41</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>376.12</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>374.38</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>373.86</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>372.61</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>370.59</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>369.87</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>369.16</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>368.15</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>366.07</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>364.49</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>362.32</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>361.35</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>358.83</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>358.12</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>356.65</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>354.14</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>351.62</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>350.43</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>347.91</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>346.91</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>344.4</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>342.33</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>340.16</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>338.07</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>337.06</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>334.56</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>332.68</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>330.16</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>328.52</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>327.07</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>326.06</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>325.24</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>324.22000000000003</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>321.70999999999998</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>319.2</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>318.3</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>317.39</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>316.16000000000003</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>315.32</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>314.36</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>313.35000000000002</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>310.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>308.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>307.94</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>307.19</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>305.95999999999998</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>305.02999999999997</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>302.52</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>300.01</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>298.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>296.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>293.64</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>292.88</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>291.83999999999997</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>289.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>287.14999999999998</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>284.64</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>282.91000000000003</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>281.13</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>278.63</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>277.52</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>276.24</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>275.05</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>272.55</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>270.04000000000002</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>268.81</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>267.33</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>265.95</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>263.45</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>260.94</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>259.7</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>257.2</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>254.7</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>253.41</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>252.5</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>251.59</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>249.41</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>248.55</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>246.73</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>245.7</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>243.2</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>241.96</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>240.57</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>238.07</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>237.58</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>236.81</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>234.64</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>232.13</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>230.95</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>228.45</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>225.95</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>223.45</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>222.56</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>220.07</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>217.57</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>215.07</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>212.57</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>211.48</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>208.99</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>207.46</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>204.97</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>202.47</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>201.26</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>200.26</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>197.77</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>195.27</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>194.24</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>192.32</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>191.27</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>190.21</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>187.75</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>185.25</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>182.76</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>181.81</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>179.31</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>176.82</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>174.33</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>171.83</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>170.38</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>167.88</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>165.39</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>163.91</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>162.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>160.08000000000001</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>159.18</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>156.69</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>155.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>153.21</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>152.36000000000001</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>149.87</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>148.22999999999999</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>145.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>144.65</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>143.59</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>141.34</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>140.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>139.46</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>136.97</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>134.47999999999999</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>131.99</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>129.5</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>128.15</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>125.67</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>123.18</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>121.46</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>118.97</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>117.1</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>115.98</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>113.5</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>111.96</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>109.48</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>108.45</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>107.48</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>104.49</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>103.69</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>102.69</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>100.21</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>99.206999999999994</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>98.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>95.542000000000002</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>94.649000000000001</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>92.906999999999996</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>90.421999999999997</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>87.94</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>85.459000000000003</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>82.974000000000004</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>80.491</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>79.843000000000004</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>78.927999999999997</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>76.885999999999996</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>76.203999999999994</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>74.73</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>73.167000000000002</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>70.796000000000006</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>69.977999999999994</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>68.531999999999996</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>66.052999999999997</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>64.878</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>62.396000000000001</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>61.636000000000003</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>60.481999999999999</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>59.29</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>56.811999999999998</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>54.331000000000003</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>53.636000000000003</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>52.932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>50.454999999999998</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>48.683</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>47.216000000000001</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>44.738</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>42.262</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>40.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>38.432000000000002</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>35.956000000000003</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>35.488</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>34.997999999999998</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>34.021999999999998</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>33.146999999999998</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>32.238999999999997</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>30.747</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>28.27</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>27.465</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>25.891999999999999</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>23.459</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>20.986000000000001</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>19.509</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>17.033000000000001</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>15.064</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>14.205</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>11.73</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>9.2538</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>6.7796000000000003</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>5.9198000000000004</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>3.4447999999999999</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>2.0851000000000002</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>1.1231</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>-1.351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A141-4A34-BC16-D146BF685B73}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="453433360"/>
+        <c:axId val="46662064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="453433360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46662064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="46662064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453433360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>723</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>738</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AE9850-27E5-4050-AF20-676AB0FF12E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{429E52E1-99C1-450B-AABA-DEC32DDD8821}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4">
@@ -149,11 +5486,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3701E059-BB61-4CD8-8A70-B459398E175F}" name="Simulation_Data" displayName="Simulation_Data" ref="A1:B741" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3701E059-BB61-4CD8-8A70-B459398E175F}" name="Simulation_Data" displayName="Simulation_Data" ref="A1:B741" tableType="queryTable" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B741" xr:uid="{3701E059-BB61-4CD8-8A70-B459398E175F}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{48D45E19-6C16-4B7C-91AB-2C5719A64F1A}" uniqueName="1" name="Time (s)" queryTableFieldId="1" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{0A1F6C84-D2AB-4776-8141-779015744B64}" uniqueName="2" name="Altitude (m)" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{48D45E19-6C16-4B7C-91AB-2C5719A64F1A}" uniqueName="1" name="Time (s)" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{0A1F6C84-D2AB-4776-8141-779015744B64}" uniqueName="2" name="Altitude (m)" queryTableFieldId="2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6400,8 +11737,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
